--- a/Documents/Dazzelite_Instruction.xlsx
+++ b/Documents/Dazzelite_Instruction.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dazzelite\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1F08FD-0965-4A88-A4FA-A9E222227EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC74784-2152-483B-9073-BC3E175B0A1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4584" yWindow="864" windowWidth="15156" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orginial" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>Red</t>
   </si>
@@ -42,9 +41,6 @@
   </si>
   <si>
     <t>One Nibble</t>
-  </si>
-  <si>
-    <t>White:</t>
   </si>
   <si>
     <t xml:space="preserve">Duration: </t>
@@ -112,22 +108,6 @@
   </si>
   <si>
     <t>Qty of commands = loop command line number - start command number. 255 max commands.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15 max </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
   </si>
   <si>
     <t>Address/Duration/ Loops/Hours On</t>
@@ -254,9 +234,6 @@
     <t>Setup before issuing the display instruction set</t>
   </si>
   <si>
-    <t>Blue = 13, Green = 13, Red = 13</t>
-  </si>
-  <si>
     <t>[11:8]</t>
   </si>
   <si>
@@ -321,22 +298,54 @@
     </r>
   </si>
   <si>
-    <t>Direction: shooting ball goes clockwise when 1, counter-clockwise when 0</t>
-  </si>
-  <si>
-    <t>Initialize only needs to be set to 1 once when starting this display, then set to 0</t>
-  </si>
-  <si>
-    <t>Uses random color palette, 1 to 8 lites per side</t>
-  </si>
-  <si>
-    <t>Qty of lites [22:20]</t>
-  </si>
-  <si>
     <t>Dazzelite Instruction Creator</t>
   </si>
   <si>
     <t>Rev 0.1</t>
+  </si>
+  <si>
+    <t>1 to 8 lites per side</t>
+  </si>
+  <si>
+    <t>For backwards compatability, a step size of 0 = 1. All others = number entered</t>
+  </si>
+  <si>
+    <t>15 max</t>
+  </si>
+  <si>
+    <t>Uses random color palette in instruction 9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step size [25:20] </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Qty of lites [22:20] </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -403,7 +412,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -571,20 +580,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -637,9 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -763,9 +760,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,25 +784,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -888,6 +870,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,15 +1247,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1279,7 +1274,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7">
         <v>8</v>
@@ -1288,12 +1283,12 @@
         <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -1313,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>6</v>
@@ -1327,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>6</v>
@@ -1341,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
@@ -1355,7 +1350,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="str">
@@ -1363,7 +1358,7 @@
         <v>10800000</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1374,317 +1369,319 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="36" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+    </row>
+    <row r="16" spans="1:7" s="35" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="25">
+      <c r="A17" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="24">
         <v>0</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="28">
+      <c r="A18" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="27">
         <v>1</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="39">
+        <v>2</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="85">
+        <v>3</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="83"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="84"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="43"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="40">
-        <v>2</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="91">
-        <v>3</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="43" t="s">
+      <c r="B23" s="41">
+        <v>4</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="41" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="89"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="90"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="42">
-        <v>4</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>41</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="91">
+      <c r="A24" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="85">
         <v>5</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="97"/>
+      <c r="C24" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="91"/>
       <c r="F24" s="2"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="104"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="98"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="92"/>
       <c r="F25" s="2"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="105"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="99"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="93"/>
       <c r="F26" s="2"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="28">
+      <c r="A27" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="27">
         <v>6</v>
       </c>
-      <c r="C27" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="25"/>
+      <c r="C27" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="24"/>
       <c r="F27" s="2"/>
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="100">
+      <c r="A28" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="94">
         <v>7</v>
       </c>
-      <c r="C28" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="97"/>
+      <c r="C28" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="91"/>
       <c r="F28" s="2"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="104"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="98"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="92"/>
       <c r="F29" s="2"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="105"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="99"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="2"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="28">
+      <c r="A31" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="28"/>
+      <c r="B31" s="27">
+        <v>8</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="27"/>
       <c r="F31" s="2"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="12">
         <v>9</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="57">
+      <c r="A33" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="56">
         <v>10</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
       <c r="F33" s="2"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="82">
+      <c r="A34" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="76">
         <v>11</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="55" t="s">
+      <c r="C34" s="78"/>
+      <c r="D34" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="80"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="75"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="81"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="62"/>
+      <c r="B36" s="71">
+        <v>12</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="58"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="27">
+        <v>13</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="86"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="87"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="63"/>
-      <c r="B36" s="76">
-        <v>12</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="59"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="28">
-        <v>13</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>65</v>
+      <c r="E37" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37"/>
@@ -1694,7 +1691,7 @@
       <c r="B38" s="7">
         <v>14</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="2"/>
@@ -1732,29 +1729,29 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="19"/>
       <c r="C42" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51" t="s">
+      <c r="A43" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="50" t="s">
         <v>0</v>
       </c>
       <c r="F43" s="2"/>
@@ -1779,54 +1776,52 @@
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="23"/>
+      <c r="A46" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="2"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="A47" s="30">
         <v>1</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="E47" s="23"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="2"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
+      <c r="A48" s="23">
         <v>2</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="23"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="2"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="29">
+      <c r="A49" s="28">
         <v>3</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="30"/>
+        <v>48</v>
+      </c>
+      <c r="C49" s="29"/>
       <c r="D49" s="13"/>
       <c r="E49" s="6"/>
       <c r="F49" s="2"/>
@@ -1846,53 +1841,48 @@
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47">
+      <c r="A51" s="46">
         <v>5</v>
       </c>
-      <c r="B51" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="72"/>
+      <c r="B51" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="78">
+      <c r="A52" s="104">
         <v>6</v>
       </c>
-      <c r="B52" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="72"/>
-    </row>
-    <row r="53" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="79"/>
-      <c r="B53" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
-    </row>
-    <row r="54" spans="1:7" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="22"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B52" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="100"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="100"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
@@ -1904,7 +1894,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="E24:E26"/>
-    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C35"/>

--- a/Documents/Dazzelite_Instruction.xlsx
+++ b/Documents/Dazzelite_Instruction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dazzelite\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC74784-2152-483B-9073-BC3E175B0A1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AA85D4-0F1E-47E3-91C3-3FB78D73C657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24972" yWindow="960" windowWidth="16356" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orginial" sheetId="1" r:id="rId1"/>
@@ -282,22 +282,6 @@
     <t>Upper Limit [23:22]</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Left to right &amp; right to left </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
     <t>Dazzelite Instruction Creator</t>
   </si>
   <si>
@@ -307,29 +291,10 @@
     <t>1 to 8 lites per side</t>
   </si>
   <si>
-    <t>For backwards compatability, a step size of 0 = 1. All others = number entered</t>
-  </si>
-  <si>
     <t>15 max</t>
   </si>
   <si>
     <t>Uses random color palette in instruction 9</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Step size [25:20] </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
   </si>
   <si>
     <r>
@@ -346,6 +311,28 @@
       </rPr>
       <t>6</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Offset size [25:20] </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>For backwards compatability, an offset size of 0 = 1. All others = number entered</t>
+  </si>
+  <si>
+    <t>Left to right &amp; right to left</t>
   </si>
 </sst>
 </file>
@@ -793,84 +780,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,6 +792,84 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1230,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1247,10 +1234,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1308,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>6</v>
@@ -1322,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>6</v>
@@ -1336,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
@@ -1438,16 +1425,16 @@
       <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="85">
+      <c r="B20" s="82">
         <v>3</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="82" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="42" t="s">
@@ -1455,19 +1442,19 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="86"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="53" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="87"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1490,53 +1477,53 @@
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="85">
+      <c r="B24" s="82">
         <v>5</v>
       </c>
-      <c r="C24" s="85" t="s">
-        <v>73</v>
+      <c r="C24" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="91"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="2"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="98"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="92"/>
+      <c r="E25" s="89"/>
       <c r="F25" s="2"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="99"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="93"/>
+      <c r="E26" s="90"/>
       <c r="F26" s="2"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B27" s="27">
         <v>6</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" s="63" t="s">
         <v>59</v>
@@ -1546,10 +1533,10 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="94">
+      <c r="B28" s="91">
         <v>7</v>
       </c>
       <c r="C28" s="59" t="s">
@@ -1558,31 +1545,31 @@
       <c r="D28" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="91"/>
+      <c r="E28" s="88"/>
       <c r="F28" s="2"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="98"/>
-      <c r="B29" s="95"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="67" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="92"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="2"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
-      <c r="B30" s="96"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="60" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="66"/>
-      <c r="E30" s="93"/>
+      <c r="E30" s="90"/>
       <c r="F30" s="2"/>
       <c r="G30"/>
     </row>
@@ -1634,27 +1621,27 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="99">
         <v>11</v>
       </c>
-      <c r="C34" s="78"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="80"/>
+      <c r="E34" s="103"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="75"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="79"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="81"/>
+      <c r="E35" s="104"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1806,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="13"/>
@@ -1832,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -1854,35 +1841,39 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="104">
+      <c r="A52" s="78">
         <v>6</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:7" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="100"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
+      <c r="A53" s="74"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="100"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="103"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="77"/>
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:E35"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C20:C22"/>
@@ -1894,10 +1885,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="E24:E26"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
